--- a/output/fit_clients/fit_round_287.xlsx
+++ b/output/fit_clients/fit_round_287.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1676744231.011574</v>
+        <v>2244323619.522893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08548899104797215</v>
+        <v>0.1109477813378527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03891459162230599</v>
+        <v>0.0275860980178168</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>838372067.7222641</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2464090813.093351</v>
+        <v>1755211317.95413</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1561605899822507</v>
+        <v>0.1782048105475865</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03590968103148542</v>
+        <v>0.04461001746916254</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1232045518.475069</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3583184088.454032</v>
+        <v>4834231391.071453</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1150435064423787</v>
+        <v>0.1471532550881526</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03182606366038932</v>
+        <v>0.02571483999459023</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1791592028.878657</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3979453880.734135</v>
+        <v>2806917829.219822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09590117736952214</v>
+        <v>0.06966889466629336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03089012840030984</v>
+        <v>0.03202396248953675</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1989726945.450296</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2244498858.247625</v>
+        <v>1951839359.727107</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1365132347375463</v>
+        <v>0.1358994589672895</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05355508738789998</v>
+        <v>0.04549099730404358</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1122249432.25818</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2373925519.045493</v>
+        <v>2141396595.260178</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09169272267523874</v>
+        <v>0.07449545353453252</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03905747408855124</v>
+        <v>0.04276157551274484</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>90</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1186962784.668176</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2958191022.930331</v>
+        <v>3738571174.124999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1977184292340024</v>
+        <v>0.1514805643631466</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02260316962271863</v>
+        <v>0.03206940994647249</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1479095564.70432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2173976232.159182</v>
+        <v>2233186743.43764</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1331539319649279</v>
+        <v>0.1252824582546331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02479668192955976</v>
+        <v>0.02905658642065211</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1086988118.54881</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3684085365.02428</v>
+        <v>4404045841.546767</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1691641099018944</v>
+        <v>0.1725272223683043</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04778886164634289</v>
+        <v>0.04437873489546124</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>121</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1842042679.923433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3959771923.997305</v>
+        <v>3447349748.150389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1422134033481371</v>
+        <v>0.1593669307119144</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03643391907244255</v>
+        <v>0.03667587354480047</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>119</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1979885971.873245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2855911226.795406</v>
+        <v>3307215058.501993</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1213136691016144</v>
+        <v>0.163797957569346</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04225953378060802</v>
+        <v>0.03738753675358304</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>97</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1427955618.23142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4293802876.761306</v>
+        <v>5231006914.482252</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08785018519187364</v>
+        <v>0.09523532617086036</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02106101573178976</v>
+        <v>0.02645443147605398</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>96</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2146901478.380635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2632683721.435956</v>
+        <v>3065272035.01217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1484631739071207</v>
+        <v>0.1170124450442399</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03340581463050717</v>
+        <v>0.03854798838935822</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1316341921.757286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1234646120.62986</v>
+        <v>1447963147.308497</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0802987927025629</v>
+        <v>0.06661703805575839</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0432777096321056</v>
+        <v>0.04505910480835017</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>617323085.6528981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1947240892.337436</v>
+        <v>2497928041.904869</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09580045110107947</v>
+        <v>0.08148612269662822</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04241519462561474</v>
+        <v>0.03800674253145317</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>973620526.3628054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3263886934.230928</v>
+        <v>3826103458.777511</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1517094331950868</v>
+        <v>0.1342775893687322</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05308458605589773</v>
+        <v>0.05266159479157471</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1631943538.108299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2807115302.156293</v>
+        <v>3478152254.577894</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1156956169643956</v>
+        <v>0.1559451044148888</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02926990653715489</v>
+        <v>0.02568200291039486</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>94</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1403557695.264606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1082402491.567678</v>
+        <v>1111936888.549856</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1213315217090855</v>
+        <v>0.1270997891128236</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02280194277493749</v>
+        <v>0.02189928430352574</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>541201295.0674187</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2184270371.535788</v>
+        <v>2291962908.420472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1241691409048866</v>
+        <v>0.1468567358994164</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02427643293629545</v>
+        <v>0.02601321378738993</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1092135192.491528</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2279055888.78343</v>
+        <v>2073667446.3251</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09548412612168833</v>
+        <v>0.08941441023160392</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02847281050909593</v>
+        <v>0.03186980300739645</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1139527953.623977</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3195385836.348913</v>
+        <v>2498640383.820382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1014523916693214</v>
+        <v>0.1158024390436663</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04067589561555915</v>
+        <v>0.04931560505583722</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>79</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1597692968.007023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1439526848.603645</v>
+        <v>974868737.5431787</v>
       </c>
       <c r="F23" t="n">
-        <v>0.120736277560184</v>
+        <v>0.1823362836442355</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04334351791241468</v>
+        <v>0.05277384673068342</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>719763420.4284003</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3575981693.45225</v>
+        <v>3387442994.695897</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1126511188161702</v>
+        <v>0.1095089565958578</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0365403725951134</v>
+        <v>0.03571196721073334</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>84</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1787990843.228127</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010291957.812153</v>
+        <v>1377895605.671675</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147571494833889</v>
+        <v>0.09366686030698279</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02446503953733029</v>
+        <v>0.03015384658221729</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505146040.5150523</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1210295255.373041</v>
+        <v>1318673149.198254</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09751109351276933</v>
+        <v>0.09699897674030795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02735173945228495</v>
+        <v>0.03548813344261102</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>605147651.2454284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4293521975.429858</v>
+        <v>4031486078.179188</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1159159739930719</v>
+        <v>0.1348128327504636</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02677204761318635</v>
+        <v>0.01864689656319312</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2146760983.28771</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3697135441.020859</v>
+        <v>3162747622.686756</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1100517716756347</v>
+        <v>0.1163461559651563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04475730725541163</v>
+        <v>0.04315980390188196</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>94</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1848567792.272641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3737768875.689969</v>
+        <v>5669564539.828183</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1417146564681185</v>
+        <v>0.1355683709331404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03457737173184379</v>
+        <v>0.04649480154386521</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>127</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1868884472.844811</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1788848128.581511</v>
+        <v>1710841962.033663</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1373842400309991</v>
+        <v>0.09221069344232165</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02669949293143454</v>
+        <v>0.03080676901825572</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>894424077.6753699</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>957916950.0235932</v>
+        <v>1000820927.02273</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09586195439840103</v>
+        <v>0.09010310978609744</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03814199730063057</v>
+        <v>0.03237912446559699</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>478958483.4641822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1695520090.64583</v>
+        <v>1144556364.132667</v>
       </c>
       <c r="F32" t="n">
-        <v>0.103263596422996</v>
+        <v>0.1135826432823211</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02603997773132658</v>
+        <v>0.03549052368652456</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>847760154.1654155</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2359461866.357703</v>
+        <v>2899070511.760195</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2013471349922311</v>
+        <v>0.164335345336005</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04963149256712148</v>
+        <v>0.05909120941265543</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1179730983.339797</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1346957466.96979</v>
+        <v>1416567084.257811</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09207339816828422</v>
+        <v>0.07888958421828433</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02588942627620827</v>
+        <v>0.02826903551105103</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>673478714.4076526</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1346597386.344486</v>
+        <v>1240294995.077891</v>
       </c>
       <c r="F35" t="n">
-        <v>0.100754768120362</v>
+        <v>0.09728690114481946</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0443587531907907</v>
+        <v>0.03401473879261593</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>673298635.7474014</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2562110563.15472</v>
+        <v>2609770609.642561</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1800905282033894</v>
+        <v>0.1333153655032125</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01845610664645458</v>
+        <v>0.02479274516102442</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1281055298.586945</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2762610552.75845</v>
+        <v>2178965639.507878</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08145751800525601</v>
+        <v>0.07418070120785454</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0317269786934004</v>
+        <v>0.03396325083836973</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>76</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1381305408.555526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2093765907.054082</v>
+        <v>2031112900.528852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11741084462259</v>
+        <v>0.1018668874063715</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03482198010365995</v>
+        <v>0.02584801486179395</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1046882918.911883</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2119480204.498369</v>
+        <v>1485663055.085511</v>
       </c>
       <c r="F39" t="n">
-        <v>0.19129392627647</v>
+        <v>0.1815586717927759</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02140198895193505</v>
+        <v>0.0237196547875584</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1059740078.674358</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1209176787.797154</v>
+        <v>1148571648.734101</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1522596982173363</v>
+        <v>0.1596729624365323</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04784536088773558</v>
+        <v>0.05833738995190178</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>604588432.8894576</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2765826199.484739</v>
+        <v>2490093889.12294</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1408734560647415</v>
+        <v>0.1493702590861673</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03941574962323884</v>
+        <v>0.04711163811778406</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>70</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1382913099.041688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3207620905.439533</v>
+        <v>3557903018.970292</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1118371302585839</v>
+        <v>0.09011388630301731</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04593413684128569</v>
+        <v>0.02839102477593404</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>94</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1603810427.472279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2325877147.314995</v>
+        <v>2894107796.470872</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1317603902135788</v>
+        <v>0.1297592882269828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01692020684184739</v>
+        <v>0.02071445367089383</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>105</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1162938639.814555</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1595862709.542314</v>
+        <v>1925030694.909455</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09764878361923567</v>
+        <v>0.07401862926661572</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03001692948462927</v>
+        <v>0.03040953644362513</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>797931380.4740443</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2326223790.43706</v>
+        <v>1586133446.39217</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1547478472073809</v>
+        <v>0.1465129010421138</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03567748441537903</v>
+        <v>0.03662471472266466</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1163111918.941114</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4051422096.477706</v>
+        <v>4915487049.88135</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1512066468840735</v>
+        <v>0.1159596582792625</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05063576915842392</v>
+        <v>0.04075232208237788</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>102</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2025711020.726906</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4162552967.992446</v>
+        <v>3886053217.705138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1851049461571432</v>
+        <v>0.131094489209223</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03797544801869598</v>
+        <v>0.04967618170490858</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>77</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2081276492.332477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3959249224.171873</v>
+        <v>2878926994.820335</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07869169225298839</v>
+        <v>0.09372147679118414</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03329382546312658</v>
+        <v>0.03004680568398269</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>97</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1979624648.847427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1655873822.115808</v>
+        <v>1386811031.341877</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1843869980766207</v>
+        <v>0.1890474253323511</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04400996888762888</v>
+        <v>0.03952579342302216</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>827936918.8405594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2557311278.91343</v>
+        <v>3321545692.774384</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1215970314397995</v>
+        <v>0.1169584561131866</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04180716899884181</v>
+        <v>0.03677965712012116</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>98</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1278655730.800369</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083133648.281767</v>
+        <v>1335163129.961844</v>
       </c>
       <c r="F51" t="n">
-        <v>0.193656002566322</v>
+        <v>0.1307022640935236</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03671959038102046</v>
+        <v>0.03902273376183432</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>541566894.6205877</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3570438642.304028</v>
+        <v>5011984474.58833</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09383875358065299</v>
+        <v>0.1267826947679596</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05032507015442574</v>
+        <v>0.04583298800955211</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>118</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1785219402.912771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2455894230.884255</v>
+        <v>2379738418.064975</v>
       </c>
       <c r="F53" t="n">
-        <v>0.156358586629719</v>
+        <v>0.184712701276746</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02544973399533172</v>
+        <v>0.02251292436608108</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>82</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1227947185.413766</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4257987048.348296</v>
+        <v>4729700553.860539</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1103162724217366</v>
+        <v>0.1695976387575195</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03328166370840537</v>
+        <v>0.05264016744248238</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2128993608.52097</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4176376291.941036</v>
+        <v>3029325544.89012</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1584617602807713</v>
+        <v>0.2118226389589614</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02978252171202223</v>
+        <v>0.02252540562468707</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>74</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2088188128.663931</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1862322570.392601</v>
+        <v>1803351819.295242</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1348874675763447</v>
+        <v>0.1579025793457958</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04870630031754212</v>
+        <v>0.05701393432914426</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>931161273.7835943</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4295125340.825551</v>
+        <v>2863027741.857491</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1604909286428875</v>
+        <v>0.1746631973887107</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02741110297764393</v>
+        <v>0.01674823493754666</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>91</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2147562783.557866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1761642695.395145</v>
+        <v>1276116303.482869</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1912691856368401</v>
+        <v>0.1983830435463947</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03553583451830583</v>
+        <v>0.03904405748345658</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>880821354.9475365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3990626440.201659</v>
+        <v>4247374423.386385</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09190181718218779</v>
+        <v>0.1014037546669074</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03787918130771462</v>
+        <v>0.04511984319777113</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1995313196.499096</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3669244424.948493</v>
+        <v>2931330233.021921</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1419623968780016</v>
+        <v>0.1253607559328774</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02658380689181422</v>
+        <v>0.02334640502880744</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1834622353.022853</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2073074345.724464</v>
+        <v>2632606679.793011</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1141206866045907</v>
+        <v>0.1554946587023851</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02349371111754712</v>
+        <v>0.02199997989482292</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>99</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1036537240.745978</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1630963433.113226</v>
+        <v>1646416071.253473</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1631997194913892</v>
+        <v>0.1902885644571266</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0328350444182661</v>
+        <v>0.04110649170820405</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>815481719.2724713</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3857250353.12385</v>
+        <v>5128397456.676809</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07572183463372845</v>
+        <v>0.09362964083563073</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04141938722248722</v>
+        <v>0.04259759937050445</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1928625245.307725</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4522453695.017493</v>
+        <v>3362187869.235028</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1493486230243336</v>
+        <v>0.1243354233260935</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02202415195092179</v>
+        <v>0.02792427897845036</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>89</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2261226920.120959</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6005433892.651195</v>
+        <v>5064209767.108113</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1464138331891281</v>
+        <v>0.1618868502452207</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02422909821782682</v>
+        <v>0.02535276782557833</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>103</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3002716845.237879</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5121899827.74914</v>
+        <v>4950891099.641756</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1199250100826099</v>
+        <v>0.1231465448058691</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03196142903367785</v>
+        <v>0.04157762551081835</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>84</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2560949947.567239</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3402730420.390732</v>
+        <v>2493757673.238664</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08656372652034888</v>
+        <v>0.08218336477790408</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0489606865591968</v>
+        <v>0.03530185078518145</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>92</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1701365194.329777</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6093949572.580443</v>
+        <v>5558600457.211691</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1297823056623681</v>
+        <v>0.1217504131694832</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0518339933647352</v>
+        <v>0.0377550898541512</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3046974908.967674</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1809428885.231123</v>
+        <v>2044663229.867754</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1749568034039066</v>
+        <v>0.1131237335875597</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04829581013161142</v>
+        <v>0.04417980137625321</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>904714422.9159809</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2635649856.283658</v>
+        <v>3708092474.33388</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09780886403781473</v>
+        <v>0.09026883853868804</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04250724850101749</v>
+        <v>0.03571039748735618</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>82</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1317824881.428507</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5073865996.590405</v>
+        <v>5523602199.018676</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1533090079385334</v>
+        <v>0.1574160875203655</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02701335347420894</v>
+        <v>0.02130456618796802</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2536933109.5483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1415694992.028905</v>
+        <v>1657050408.270486</v>
       </c>
       <c r="F72" t="n">
-        <v>0.100737495282116</v>
+        <v>0.06610348025174886</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04016398506413717</v>
+        <v>0.04211656503308542</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>707847536.6071142</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2403735134.294007</v>
+        <v>3560856795.989413</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09914491310998241</v>
+        <v>0.1098036897133273</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03696441206026169</v>
+        <v>0.04910024844494418</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>109</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1201867617.714905</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3982631333.371883</v>
+        <v>2521259807.456186</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1628480286648265</v>
+        <v>0.1324277619479695</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02269149692960325</v>
+        <v>0.02406583354550573</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>98</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1991315647.146127</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1565599709.222221</v>
+        <v>1651386656.312157</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1190801559703891</v>
+        <v>0.1412170139805259</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02435192369795696</v>
+        <v>0.03560355533678793</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>782799859.48768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3726392990.074719</v>
+        <v>4511547006.208354</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1129383664864976</v>
+        <v>0.1207866795470699</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02592963813780458</v>
+        <v>0.02753836846816868</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1863196468.297888</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1552603720.4253</v>
+        <v>1649885190.169095</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1604787057264615</v>
+        <v>0.1223885079570615</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02052514365433195</v>
+        <v>0.02079308524750715</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>776301855.6288397</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4595721852.963847</v>
+        <v>3610776889.984531</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1242233097492607</v>
+        <v>0.09293431700858715</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04055787360332458</v>
+        <v>0.04569183426354295</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>100</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2297860849.591948</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1368213837.599142</v>
+        <v>1261088705.693625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1420847383736951</v>
+        <v>0.1239906770575948</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03104572059165756</v>
+        <v>0.03843713277699838</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>684106929.9534501</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4277336553.234697</v>
+        <v>3914146428.456856</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0688493460019237</v>
+        <v>0.0887972946766253</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03541753042766115</v>
+        <v>0.0363123600880488</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2138668289.879869</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4039578704.006358</v>
+        <v>4277195703.274814</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09811557141549269</v>
+        <v>0.1118228475276816</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03130177902749492</v>
+        <v>0.02063880180187203</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2019789316.690166</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3982760091.009211</v>
+        <v>5478984051.99841</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1854025581927507</v>
+        <v>0.2151184243126155</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0239144670176573</v>
+        <v>0.01971719592672116</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>101</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1991380086.238414</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2204600555.179903</v>
+        <v>1875784739.099912</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1438746314414188</v>
+        <v>0.1514929439071097</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02752902810065826</v>
+        <v>0.02962830117580637</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1102300288.329592</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1609115008.859767</v>
+        <v>2435117571.431342</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1109658441428031</v>
+        <v>0.1115066675929464</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04889443280993177</v>
+        <v>0.04014851915177484</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>804557566.6677245</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2533692981.852264</v>
+        <v>3451064494.411522</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1301658923301273</v>
+        <v>0.1713834187279489</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05247257561749412</v>
+        <v>0.04634159784998006</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>108</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1266846499.587083</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2630882804.883084</v>
+        <v>2784875490.746014</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1191079199395007</v>
+        <v>0.1114409208727616</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02137565018954927</v>
+        <v>0.01796670111464042</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>37</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1315441517.795886</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1034570344.833692</v>
+        <v>1143082367.261184</v>
       </c>
       <c r="F87" t="n">
-        <v>0.160800845361079</v>
+        <v>0.1859190806045892</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04317915862183996</v>
+        <v>0.02914621226386423</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>517285185.5965482</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3542691098.062243</v>
+        <v>2652329801.750975</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1780936791286408</v>
+        <v>0.1083158164315899</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02907410451270888</v>
+        <v>0.03924403559055244</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>113</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1771345633.104704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3429869645.115269</v>
+        <v>3411430316.846725</v>
       </c>
       <c r="F89" t="n">
-        <v>0.152042239640185</v>
+        <v>0.1431509754766082</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03702635051826975</v>
+        <v>0.0318652093335737</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1714934829.152179</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1916759868.998333</v>
+        <v>1402293803.666026</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1221019392597734</v>
+        <v>0.1176837039471917</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04433111189437472</v>
+        <v>0.05635621564372445</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>958379989.4812769</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2007012976.153386</v>
+        <v>1626649185.683792</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1737823944224512</v>
+        <v>0.1509251540005096</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05673914160147333</v>
+        <v>0.05013740065066822</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1003506459.425603</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2341936941.413249</v>
+        <v>2450768130.61339</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06875145229141034</v>
+        <v>0.07945152633137985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03096271676750438</v>
+        <v>0.02885402953284298</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1170968442.697675</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3760258314.470183</v>
+        <v>3540911733.460543</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1291329338875289</v>
+        <v>0.1386738176284033</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04727302235495887</v>
+        <v>0.03917102106988848</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1880129173.364892</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2085201252.990442</v>
+        <v>2258186642.577451</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1188820841745884</v>
+        <v>0.1265319383333352</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04259169129752804</v>
+        <v>0.02719548136906414</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1042600635.922365</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3255267554.985211</v>
+        <v>2616416181.483157</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09505952079001245</v>
+        <v>0.1182836503599828</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04827095294293941</v>
+        <v>0.04438677018805649</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1627633758.663717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2180139473.67428</v>
+        <v>2229779538.586439</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1342182691460984</v>
+        <v>0.1366170664178918</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04073915507821843</v>
+        <v>0.028739594879998</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1090069704.59108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5056279788.138843</v>
+        <v>3794234859.883477</v>
       </c>
       <c r="F97" t="n">
-        <v>0.139991715443051</v>
+        <v>0.1586008063460701</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02180158570212857</v>
+        <v>0.02413763336878206</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>92</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2528140035.400358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2385778629.773526</v>
+        <v>3589066402.279811</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08954622826347367</v>
+        <v>0.08739815512328619</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02034912379669277</v>
+        <v>0.02503118997943475</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1192889257.948171</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2104692540.806686</v>
+        <v>3327179855.847324</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1066260007511988</v>
+        <v>0.1152687765979297</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02633080606926273</v>
+        <v>0.02197226452745837</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>90</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1052346191.494783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3070504507.448197</v>
+        <v>3667178122.268591</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1300496219115034</v>
+        <v>0.1467476435282324</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01995944118769881</v>
+        <v>0.02434380311992952</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1535252250.187606</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2587779637.435858</v>
+        <v>3023135152.172971</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2028517518352059</v>
+        <v>0.1639092016298438</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04988460315288638</v>
+        <v>0.03556812245063822</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>113</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1293889853.274408</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_287.xlsx
+++ b/output/fit_clients/fit_round_287.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2244323619.522893</v>
+        <v>2417079871.555666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1109477813378527</v>
+        <v>0.1049628088616041</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0275860980178168</v>
+        <v>0.04265049619132578</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1755211317.95413</v>
+        <v>1639490922.970515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1782048105475865</v>
+        <v>0.1212532207506039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04461001746916254</v>
+        <v>0.04207512584534902</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4834231391.071453</v>
+        <v>5077062454.870539</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1471532550881526</v>
+        <v>0.1271084681914081</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02571483999459023</v>
+        <v>0.03503529371299175</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2806917829.219822</v>
+        <v>4025252708.101939</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06966889466629336</v>
+        <v>0.08406719726899525</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03202396248953675</v>
+        <v>0.04168340880782273</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1951839359.727107</v>
+        <v>2725799572.61245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1358994589672895</v>
+        <v>0.144813569655027</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04549099730404358</v>
+        <v>0.04292681223869488</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2141396595.260178</v>
+        <v>2749842172.232389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07449545353453252</v>
+        <v>0.1015050639479277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04276157551274484</v>
+        <v>0.04425530676758851</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3738571174.124999</v>
+        <v>3938915190.610742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1514805643631466</v>
+        <v>0.1474838123181841</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03206940994647249</v>
+        <v>0.03280866535066945</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2233186743.43764</v>
+        <v>1727364653.85267</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1252824582546331</v>
+        <v>0.1801484281132187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02905658642065211</v>
+        <v>0.02617301980265935</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4404045841.546767</v>
+        <v>5568435455.732242</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1725272223683043</v>
+        <v>0.1905835532626097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04437873489546124</v>
+        <v>0.03329574361722085</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3447349748.150389</v>
+        <v>2690921253.091257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1593669307119144</v>
+        <v>0.1294305797253077</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03667587354480047</v>
+        <v>0.03311462660955451</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3307215058.501993</v>
+        <v>2150116059.271758</v>
       </c>
       <c r="F12" t="n">
-        <v>0.163797957569346</v>
+        <v>0.1658915612649477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03738753675358304</v>
+        <v>0.03854655058635502</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5231006914.482252</v>
+        <v>3348920197.899577</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09523532617086036</v>
+        <v>0.0934521520992119</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02645443147605398</v>
+        <v>0.02334607271754389</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3065272035.01217</v>
+        <v>2512370289.634265</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1170124450442399</v>
+        <v>0.1304811348170327</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03854798838935822</v>
+        <v>0.03660931800637499</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1447963147.308497</v>
+        <v>1705688592.166341</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06661703805575839</v>
+        <v>0.07883442613567902</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04505910480835017</v>
+        <v>0.03790031170955108</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2497928041.904869</v>
+        <v>2089510708.143842</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08148612269662822</v>
+        <v>0.1013623687751792</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03800674253145317</v>
+        <v>0.03554041930055502</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3826103458.777511</v>
+        <v>3336195106.263092</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1342775893687322</v>
+        <v>0.1637852274993221</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05266159479157471</v>
+        <v>0.0449416823409149</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3478152254.577894</v>
+        <v>2774929587.743915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1559451044148888</v>
+        <v>0.1704452314907214</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02568200291039486</v>
+        <v>0.02894271847026812</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1111936888.549856</v>
+        <v>1017558447.247768</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1270997891128236</v>
+        <v>0.1414988621738175</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02189928430352574</v>
+        <v>0.02463952008583325</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2291962908.420472</v>
+        <v>2017753102.797525</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1468567358994164</v>
+        <v>0.1229286103525431</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02601321378738993</v>
+        <v>0.02279632959295068</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2073667446.3251</v>
+        <v>2461682527.276306</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08941441023160392</v>
+        <v>0.07467509420318201</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03186980300739645</v>
+        <v>0.03140831133289332</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2498640383.820382</v>
+        <v>3068156620.998451</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1158024390436663</v>
+        <v>0.1063814760497058</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04931560505583722</v>
+        <v>0.0448602138093424</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>974868737.5431787</v>
+        <v>1317304239.040177</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1823362836442355</v>
+        <v>0.1561842392283757</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05277384673068342</v>
+        <v>0.04351677321503271</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3387442994.695897</v>
+        <v>3843532959.915243</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1095089565958578</v>
+        <v>0.1493174710706797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03571196721073334</v>
+        <v>0.03394910612078119</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1377895605.671675</v>
+        <v>1244285915.202622</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09366686030698279</v>
+        <v>0.1190927550321377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03015384658221729</v>
+        <v>0.02994808443828993</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318673149.198254</v>
+        <v>923335232.2614747</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09699897674030795</v>
+        <v>0.1221916869277407</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03548813344261102</v>
+        <v>0.03531516938216405</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4031486078.179188</v>
+        <v>4172968407.449799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1348128327504636</v>
+        <v>0.1391381061449837</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01864689656319312</v>
+        <v>0.01754030376957914</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3162747622.686756</v>
+        <v>2760518236.889819</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1163461559651563</v>
+        <v>0.09929329334020334</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04315980390188196</v>
+        <v>0.03622209444564209</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5669564539.828183</v>
+        <v>5815872343.742757</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1355683709331404</v>
+        <v>0.1153443789151287</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04649480154386521</v>
+        <v>0.03186371728223023</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1710841962.033663</v>
+        <v>1744394130.058106</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09221069344232165</v>
+        <v>0.1090794915990827</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03080676901825572</v>
+        <v>0.0343451503197201</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1000820927.02273</v>
+        <v>1263973773.275094</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09010310978609744</v>
+        <v>0.09080303846469798</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03237912446559699</v>
+        <v>0.03841858325498396</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1144556364.132667</v>
+        <v>1551784733.964339</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1135826432823211</v>
+        <v>0.08137004167592156</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03549052368652456</v>
+        <v>0.03218248265860012</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2899070511.760195</v>
+        <v>2188501660.169903</v>
       </c>
       <c r="F33" t="n">
-        <v>0.164335345336005</v>
+        <v>0.1321967053066016</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05909120941265543</v>
+        <v>0.0595474775881107</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1416567084.257811</v>
+        <v>1139452189.618639</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07888958421828433</v>
+        <v>0.08549646960823006</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02826903551105103</v>
+        <v>0.02360915082126067</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1240294995.077891</v>
+        <v>1096414934.372069</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09728690114481946</v>
+        <v>0.1002735736492977</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03401473879261593</v>
+        <v>0.03020040910755735</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2609770609.642561</v>
+        <v>3090220241.64981</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1333153655032125</v>
+        <v>0.1490567263548796</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02479274516102442</v>
+        <v>0.02749956857765086</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2178965639.507878</v>
+        <v>2664809308.62683</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07418070120785454</v>
+        <v>0.07808604558934383</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03396325083836973</v>
+        <v>0.03743645215317763</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2031112900.528852</v>
+        <v>1560220493.434543</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1018668874063715</v>
+        <v>0.09673762475345968</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02584801486179395</v>
+        <v>0.02611783277858988</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1485663055.085511</v>
+        <v>1555273735.195247</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1815586717927759</v>
+        <v>0.1273334327070666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0237196547875584</v>
+        <v>0.03186540571204653</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1148571648.734101</v>
+        <v>1201227773.89975</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1596729624365323</v>
+        <v>0.1625986707124219</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05833738995190178</v>
+        <v>0.05840933076010469</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2490093889.12294</v>
+        <v>1888632713.996201</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1493702590861673</v>
+        <v>0.1306699502295929</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04711163811778406</v>
+        <v>0.03981143407797547</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3557903018.970292</v>
+        <v>4042622419.272412</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09011388630301731</v>
+        <v>0.0981961850206322</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02839102477593404</v>
+        <v>0.04057176265379946</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2894107796.470872</v>
+        <v>2371470480.829535</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1297592882269828</v>
+        <v>0.1730213839319129</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02071445367089383</v>
+        <v>0.02543999887364105</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1925030694.909455</v>
+        <v>2059330529.109244</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07401862926661572</v>
+        <v>0.0957736650113321</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03040953644362513</v>
+        <v>0.03672543023244518</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1586133446.39217</v>
+        <v>2177455510.921391</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1465129010421138</v>
+        <v>0.1481530452786783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03662471472266466</v>
+        <v>0.04990490233242503</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4915487049.88135</v>
+        <v>4564488978.528078</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1159596582792625</v>
+        <v>0.1400554531932189</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04075232208237788</v>
+        <v>0.04225938776792597</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3886053217.705138</v>
+        <v>5136463651.557583</v>
       </c>
       <c r="F47" t="n">
-        <v>0.131094489209223</v>
+        <v>0.1522875875541408</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04967618170490858</v>
+        <v>0.05945399517839707</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2878926994.820335</v>
+        <v>3022001022.064932</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09372147679118414</v>
+        <v>0.1052043974727712</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03004680568398269</v>
+        <v>0.03413813013274682</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1386811031.341877</v>
+        <v>1536724840.548839</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1890474253323511</v>
+        <v>0.1704525435847603</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03952579342302216</v>
+        <v>0.04387208517719601</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3321545692.774384</v>
+        <v>2688728978.493453</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1169584561131866</v>
+        <v>0.1508483988661941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03677965712012116</v>
+        <v>0.0497127114080899</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1335163129.961844</v>
+        <v>1153952485.862381</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1307022640935236</v>
+        <v>0.176703366751075</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03902273376183432</v>
+        <v>0.04728334451966874</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5011984474.58833</v>
+        <v>4618363242.272743</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1267826947679596</v>
+        <v>0.1245988336470044</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04583298800955211</v>
+        <v>0.05748468270266979</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2379738418.064975</v>
+        <v>3205304163.048515</v>
       </c>
       <c r="F53" t="n">
-        <v>0.184712701276746</v>
+        <v>0.132792660433823</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02251292436608108</v>
+        <v>0.02676519507165683</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4729700553.860539</v>
+        <v>4601138334.894936</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1695976387575195</v>
+        <v>0.1685827914532641</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05264016744248238</v>
+        <v>0.05188587133640716</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3029325544.89012</v>
+        <v>4781930949.091969</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2118226389589614</v>
+        <v>0.1923251994729383</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02252540562468707</v>
+        <v>0.02862861280554165</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1803351819.295242</v>
+        <v>1816913003.310896</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1579025793457958</v>
+        <v>0.1627945905896548</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05701393432914426</v>
+        <v>0.05569972883983117</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2863027741.857491</v>
+        <v>3209018119.210536</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1746631973887107</v>
+        <v>0.1168468966049913</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01674823493754666</v>
+        <v>0.01820854695116869</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1276116303.482869</v>
+        <v>1839893986.440439</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1983830435463947</v>
+        <v>0.1915179292068271</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03904405748345658</v>
+        <v>0.02836248888018239</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4247374423.386385</v>
+        <v>4497595198.730343</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1014037546669074</v>
+        <v>0.1056436494965908</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04511984319777113</v>
+        <v>0.03491356413056401</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2931330233.021921</v>
+        <v>3573213880.889108</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1253607559328774</v>
+        <v>0.1996305328285982</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02334640502880744</v>
+        <v>0.02804455602490243</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2632606679.793011</v>
+        <v>2271482106.072115</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1554946587023851</v>
+        <v>0.1731846927290724</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02199997989482292</v>
+        <v>0.03035155507139215</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1646416071.253473</v>
+        <v>1872596159.114125</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1902885644571266</v>
+        <v>0.1655106790429569</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04110649170820405</v>
+        <v>0.04782420604966109</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5128397456.676809</v>
+        <v>4790957587.201249</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09362964083563073</v>
+        <v>0.08147177586088891</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04259759937050445</v>
+        <v>0.02932819635573491</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3362187869.235028</v>
+        <v>3625131188.24334</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1243354233260935</v>
+        <v>0.1192371356624722</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02792427897845036</v>
+        <v>0.028564689607459</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5064209767.108113</v>
+        <v>5780487010.293848</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1618868502452207</v>
+        <v>0.1049081557776739</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02535276782557833</v>
+        <v>0.03226830995463255</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4950891099.641756</v>
+        <v>4366238972.667151</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1231465448058691</v>
+        <v>0.1563917685280664</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04157762551081835</v>
+        <v>0.04571050080874828</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2493757673.238664</v>
+        <v>2147069216.001542</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08218336477790408</v>
+        <v>0.06403750402572581</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03530185078518145</v>
+        <v>0.050179024972852</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5558600457.211691</v>
+        <v>6024082185.537261</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1217504131694832</v>
+        <v>0.1221140092701536</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0377550898541512</v>
+        <v>0.05058555634454565</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2044663229.867754</v>
+        <v>1844965412.697082</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1131237335875597</v>
+        <v>0.1157117914677482</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04417980137625321</v>
+        <v>0.03745294501047464</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3708092474.33388</v>
+        <v>2632635376.966336</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09026883853868804</v>
+        <v>0.07198054919940784</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03571039748735618</v>
+        <v>0.03306449641948903</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5523602199.018676</v>
+        <v>5022748583.758382</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1574160875203655</v>
+        <v>0.122761394070924</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02130456618796802</v>
+        <v>0.03032296057673811</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1657050408.270486</v>
+        <v>2085888445.32814</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06610348025174886</v>
+        <v>0.07236919270275156</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04211656503308542</v>
+        <v>0.05271702208511431</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3560856795.989413</v>
+        <v>2360329124.713563</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1098036897133273</v>
+        <v>0.08873895884102874</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04910024844494418</v>
+        <v>0.04297569621987152</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2521259807.456186</v>
+        <v>3433411705.807135</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1324277619479695</v>
+        <v>0.1628519878004901</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02406583354550573</v>
+        <v>0.03049153039661759</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1651386656.312157</v>
+        <v>2110011415.667292</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1412170139805259</v>
+        <v>0.1041727571866754</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03560355533678793</v>
+        <v>0.02865343949359247</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4511547006.208354</v>
+        <v>3492336592.276446</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1207866795470699</v>
+        <v>0.09140139231994494</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02753836846816868</v>
+        <v>0.02605066514245872</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1649885190.169095</v>
+        <v>1847581405.62456</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1223885079570615</v>
+        <v>0.1415089339962462</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02079308524750715</v>
+        <v>0.02851743307058546</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3610776889.984531</v>
+        <v>2907779601.670948</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09293431700858715</v>
+        <v>0.1340518630105021</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04569183426354295</v>
+        <v>0.04479875137324705</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1261088705.693625</v>
+        <v>1787751459.097745</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1239906770575948</v>
+        <v>0.1468321099069184</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03843713277699838</v>
+        <v>0.03790465944023547</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3914146428.456856</v>
+        <v>4372423389.858016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0887972946766253</v>
+        <v>0.08402836114726639</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0363123600880488</v>
+        <v>0.03030091346236371</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4277195703.274814</v>
+        <v>5120711447.623039</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1118228475276816</v>
+        <v>0.1159980743103358</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02063880180187203</v>
+        <v>0.02506307412288582</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5478984051.99841</v>
+        <v>3436995996.479384</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2151184243126155</v>
+        <v>0.2169920311053796</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01971719592672116</v>
+        <v>0.0222698188194377</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1875784739.099912</v>
+        <v>2494456187.562487</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1514929439071097</v>
+        <v>0.105504203314402</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02962830117580637</v>
+        <v>0.04527115734143363</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2435117571.431342</v>
+        <v>1608451072.030061</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115066675929464</v>
+        <v>0.09485716322585218</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04014851915177484</v>
+        <v>0.03935000552067622</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3451064494.411522</v>
+        <v>2717126567.670293</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1713834187279489</v>
+        <v>0.1379748760205184</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04634159784998006</v>
+        <v>0.04932613881225325</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2784875490.746014</v>
+        <v>2169773451.702134</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1114409208727616</v>
+        <v>0.1415084402206083</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01796670111464042</v>
+        <v>0.02372228582462057</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1143082367.261184</v>
+        <v>1197527314.246976</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1859190806045892</v>
+        <v>0.1596743626447282</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02914621226386423</v>
+        <v>0.03168005287495038</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2652329801.750975</v>
+        <v>3342374197.766921</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1083158164315899</v>
+        <v>0.1323744530017009</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03924403559055244</v>
+        <v>0.03906167912289054</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3411430316.846725</v>
+        <v>3473283782.692662</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1431509754766082</v>
+        <v>0.1055242598356866</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0318652093335737</v>
+        <v>0.02887603121993908</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1402293803.666026</v>
+        <v>1789309527.818341</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1176837039471917</v>
+        <v>0.1177313170495307</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05635621564372445</v>
+        <v>0.03513032094633842</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1626649185.683792</v>
+        <v>1374274963.578021</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1509251540005096</v>
+        <v>0.1663508723508756</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05013740065066822</v>
+        <v>0.05001632011360136</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2450768130.61339</v>
+        <v>2912831692.843202</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07945152633137985</v>
+        <v>0.06945285081619045</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02885402953284298</v>
+        <v>0.03285358496254176</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3540911733.460543</v>
+        <v>4310086477.358413</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1386738176284033</v>
+        <v>0.1265369295725711</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03917102106988848</v>
+        <v>0.04823780239910448</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2258186642.577451</v>
+        <v>2274688074.135785</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1265319383333352</v>
+        <v>0.134070587638342</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02719548136906414</v>
+        <v>0.03451543832798708</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2616416181.483157</v>
+        <v>2061155627.353238</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1182836503599828</v>
+        <v>0.1309767687314195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04438677018805649</v>
+        <v>0.04484644477584378</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2229779538.586439</v>
+        <v>2349332508.429123</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1366170664178918</v>
+        <v>0.1258434054299109</v>
       </c>
       <c r="G96" t="n">
-        <v>0.028739594879998</v>
+        <v>0.03801655650405442</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3794234859.883477</v>
+        <v>3510526362.325285</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1586008063460701</v>
+        <v>0.1738255958280562</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02413763336878206</v>
+        <v>0.028715048460612</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3589066402.279811</v>
+        <v>3539655833.286986</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08739815512328619</v>
+        <v>0.09876396582725852</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02503118997943475</v>
+        <v>0.02293155283490167</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3327179855.847324</v>
+        <v>3076094796.204223</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1152687765979297</v>
+        <v>0.1403412755507129</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02197226452745837</v>
+        <v>0.02692133846059938</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3667178122.268591</v>
+        <v>3887500793.289964</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1467476435282324</v>
+        <v>0.1427488083999761</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02434380311992952</v>
+        <v>0.01875177749954477</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3023135152.172971</v>
+        <v>3396653479.916096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1639092016298438</v>
+        <v>0.2006751121729129</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03556812245063822</v>
+        <v>0.04176080582431053</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_287.xlsx
+++ b/output/fit_clients/fit_round_287.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2417079871.555666</v>
+        <v>1906050149.965417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1049628088616041</v>
+        <v>0.1053374954999986</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04265049619132578</v>
+        <v>0.03972756854860368</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1639490922.970515</v>
+        <v>1818093573.006063</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1212532207506039</v>
+        <v>0.1725521454489218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04207512584534902</v>
+        <v>0.05048194042645249</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5077062454.870539</v>
+        <v>3186047871.462539</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1271084681914081</v>
+        <v>0.1397581266258909</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03503529371299175</v>
+        <v>0.02328736378437799</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>152</v>
+      </c>
+      <c r="J4" t="n">
+        <v>285</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4025252708.101939</v>
+        <v>3821320705.048672</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08406719726899525</v>
+        <v>0.1031765344854912</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04168340880782273</v>
+        <v>0.04857665510413139</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>116</v>
+      </c>
+      <c r="J5" t="n">
+        <v>287</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2725799572.61245</v>
+        <v>2429076927.84128</v>
       </c>
       <c r="F6" t="n">
-        <v>0.144813569655027</v>
+        <v>0.101190720665359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04292681223869488</v>
+        <v>0.03715648166377775</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2749842172.232389</v>
+        <v>2066277811.469863</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1015050639479277</v>
+        <v>0.1008105921982069</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04425530676758851</v>
+        <v>0.04020492899890889</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3938915190.610742</v>
+        <v>2635867862.303307</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1474838123181841</v>
+        <v>0.1530820398591114</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03280866535066945</v>
+        <v>0.02739987498799118</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>77</v>
+      </c>
+      <c r="J8" t="n">
+        <v>286</v>
+      </c>
+      <c r="K8" t="n">
+        <v>36.04558992736018</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1727364653.85267</v>
+        <v>1991947857.565782</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1801484281132187</v>
+        <v>0.191208620670842</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617301980265935</v>
+        <v>0.03191846325754237</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5568435455.732242</v>
+        <v>4339848708.832479</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1905835532626097</v>
+        <v>0.142565706035808</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03329574361722085</v>
+        <v>0.05197353631419866</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>257</v>
+      </c>
+      <c r="J10" t="n">
+        <v>287</v>
+      </c>
+      <c r="K10" t="n">
+        <v>90.01638995106983</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2690921253.091257</v>
+        <v>3383651914.85952</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1294305797253077</v>
+        <v>0.1458820357940376</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03311462660955451</v>
+        <v>0.03409008055737429</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>117</v>
+      </c>
+      <c r="J11" t="n">
+        <v>286</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60.75156512983873</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2150116059.271758</v>
+        <v>2541312064.921134</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1658915612649477</v>
+        <v>0.1616139071618168</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03854655058635502</v>
+        <v>0.05055559261576663</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3348920197.899577</v>
+        <v>4299886648.089919</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0934521520992119</v>
+        <v>0.08835819399689795</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02334607271754389</v>
+        <v>0.01899650882172164</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>146</v>
+      </c>
+      <c r="J13" t="n">
+        <v>287</v>
+      </c>
+      <c r="K13" t="n">
+        <v>89.67719065389031</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2512370289.634265</v>
+        <v>2429618412.135167</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1304811348170327</v>
+        <v>0.1604905560869061</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03660931800637499</v>
+        <v>0.03232364791649263</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>284</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1705688592.166341</v>
+        <v>1446490650.553828</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07883442613567902</v>
+        <v>0.100238706075366</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03790031170955108</v>
+        <v>0.03472471697102148</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2089510708.143842</v>
+        <v>2628751819.56836</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1013623687751792</v>
+        <v>0.09942867275965547</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03554041930055502</v>
+        <v>0.03791578616796536</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3336195106.263092</v>
+        <v>3708247794.449754</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1637852274993221</v>
+        <v>0.1624478075574122</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0449416823409149</v>
+        <v>0.04555579268956053</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>136</v>
+      </c>
+      <c r="J17" t="n">
+        <v>287</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2774929587.743915</v>
+        <v>2795283813.107664</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1704452314907214</v>
+        <v>0.1757920896199483</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02894271847026812</v>
+        <v>0.02530518205781777</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>285</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1017558447.247768</v>
+        <v>1251803651.902084</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1414988621738175</v>
+        <v>0.1555634486547148</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02463952008583325</v>
+        <v>0.02292147885088988</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2017753102.797525</v>
+        <v>2230861869.065101</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1229286103525431</v>
+        <v>0.1137340553040853</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02279632959295068</v>
+        <v>0.02399698681059087</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2461682527.276306</v>
+        <v>2404459971.591101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07467509420318201</v>
+        <v>0.07670392527500547</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03140831133289332</v>
+        <v>0.0460746656434011</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3068156620.998451</v>
+        <v>2645932429.305467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1063814760497058</v>
+        <v>0.1165283209599013</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0448602138093424</v>
+        <v>0.04098561271649269</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>77</v>
+      </c>
+      <c r="J22" t="n">
+        <v>286</v>
+      </c>
+      <c r="K22" t="n">
+        <v>33.13563641360128</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317304239.040177</v>
+        <v>1458889384.778831</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1561842392283757</v>
+        <v>0.1771011788691873</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04351677321503271</v>
+        <v>0.03400410477296369</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3843532959.915243</v>
+        <v>3653537433.349745</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1493174710706797</v>
+        <v>0.1358488132073855</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03394910612078119</v>
+        <v>0.02423861257440801</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>287</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1244285915.202622</v>
+        <v>1047251662.000509</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190927550321377</v>
+        <v>0.0856856890229761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02994808443828993</v>
+        <v>0.02218863240721632</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>923335232.2614747</v>
+        <v>1033872182.424898</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1221916869277407</v>
+        <v>0.1116966307082345</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03531516938216405</v>
+        <v>0.02565396098695957</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4172968407.449799</v>
+        <v>4363051544.46573</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1391381061449837</v>
+        <v>0.1444319249231094</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01754030376957914</v>
+        <v>0.02214744392888641</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>117</v>
+      </c>
+      <c r="J27" t="n">
+        <v>287</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2760518236.889819</v>
+        <v>3769917842.306672</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09929329334020334</v>
+        <v>0.1028115611883354</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03622209444564209</v>
+        <v>0.04905481388113211</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>59</v>
+      </c>
+      <c r="J28" t="n">
+        <v>287</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5815872343.742757</v>
+        <v>4824313812.121034</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1153443789151287</v>
+        <v>0.1049100272602686</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03186371728223023</v>
+        <v>0.03596479427408025</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>273</v>
+      </c>
+      <c r="J29" t="n">
+        <v>286</v>
+      </c>
+      <c r="K29" t="n">
+        <v>88.57133223214772</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1744394130.058106</v>
+        <v>1667212296.40952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1090794915990827</v>
+        <v>0.1215754976023776</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0343451503197201</v>
+        <v>0.02919262390461062</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1263973773.275094</v>
+        <v>1336386962.462132</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09080303846469798</v>
+        <v>0.07695767983180361</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03841858325498396</v>
+        <v>0.03663590399600433</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1551784733.964339</v>
+        <v>1513072395.192935</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08137004167592156</v>
+        <v>0.08718400471269316</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03218248265860012</v>
+        <v>0.03071161590033964</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2188501660.169903</v>
+        <v>2461058275.694686</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1321967053066016</v>
+        <v>0.1429508192728261</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0595474775881107</v>
+        <v>0.04117053680992786</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1139452189.618639</v>
+        <v>1124189417.512271</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08549646960823006</v>
+        <v>0.07837168976801526</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02360915082126067</v>
+        <v>0.01774229747527557</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1096414934.372069</v>
+        <v>1360470595.651153</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1002735736492977</v>
+        <v>0.1042094890770055</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03020040910755735</v>
+        <v>0.04101892889916667</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3090220241.64981</v>
+        <v>2810038693.638552</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1490567263548796</v>
+        <v>0.1555195921939779</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02749956857765086</v>
+        <v>0.01962661047535062</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2664809308.62683</v>
+        <v>1957789886.267714</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07808604558934383</v>
+        <v>0.1059550873520274</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03743645215317763</v>
+        <v>0.02916716975358983</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1560220493.434543</v>
+        <v>2010538941.546803</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09673762475345968</v>
+        <v>0.07613149891706368</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02611783277858988</v>
+        <v>0.02749257721614892</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1555273735.195247</v>
+        <v>2195259487.456632</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1273334327070666</v>
+        <v>0.1338826661894252</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03186540571204653</v>
+        <v>0.0234463700874115</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1201227773.89975</v>
+        <v>1258406310.404034</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625986707124219</v>
+        <v>0.09978961634550396</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05840933076010469</v>
+        <v>0.05338634465484241</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1888632713.996201</v>
+        <v>2542789954.503977</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1306699502295929</v>
+        <v>0.1294210273857586</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03981143407797547</v>
+        <v>0.03186990803237486</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4042622419.272412</v>
+        <v>3301305916.534868</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0981961850206322</v>
+        <v>0.1015531170796163</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04057176265379946</v>
+        <v>0.03397774786955487</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2371470480.829535</v>
+        <v>2536073498.439634</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1730213839319129</v>
+        <v>0.150181350038233</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02543999887364105</v>
+        <v>0.02255721330939455</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2059330529.109244</v>
+        <v>1644776878.979725</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0957736650113321</v>
+        <v>0.09180909627835983</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03672543023244518</v>
+        <v>0.03524873698495326</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2177455510.921391</v>
+        <v>1823353897.651963</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1481530452786783</v>
+        <v>0.149483848400824</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04990490233242503</v>
+        <v>0.03448202684443388</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4564488978.528078</v>
+        <v>5046237488.117678</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1400554531932189</v>
+        <v>0.1075470372248437</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04225938776792597</v>
+        <v>0.05241385382684992</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>169</v>
+      </c>
+      <c r="J46" t="n">
+        <v>287</v>
+      </c>
+      <c r="K46" t="n">
+        <v>89.41716540145197</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5136463651.557583</v>
+        <v>4726318919.501629</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1522875875541408</v>
+        <v>0.1469797891723077</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05945399517839707</v>
+        <v>0.05390764344434655</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>128</v>
+      </c>
+      <c r="J47" t="n">
+        <v>287</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3022001022.064932</v>
+        <v>3937957165.148306</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1052043974727712</v>
+        <v>0.08002759055724334</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03413813013274682</v>
+        <v>0.0390361388630152</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>142</v>
+      </c>
+      <c r="J48" t="n">
+        <v>287</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1536724840.548839</v>
+        <v>1521541071.230832</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1704525435847603</v>
+        <v>0.1682272876302378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04387208517719601</v>
+        <v>0.0393496979458323</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2688728978.493453</v>
+        <v>4023046790.455511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1508483988661941</v>
+        <v>0.1377686636513458</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0497127114080899</v>
+        <v>0.04885841965073467</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>91</v>
+      </c>
+      <c r="J50" t="n">
+        <v>287</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1153952485.862381</v>
+        <v>1373929420.887352</v>
       </c>
       <c r="F51" t="n">
-        <v>0.176703366751075</v>
+        <v>0.1193348034074792</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04728334451966874</v>
+        <v>0.04180568171435709</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4618363242.272743</v>
+        <v>5183973772.652139</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1245988336470044</v>
+        <v>0.1361700545417057</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05748468270266979</v>
+        <v>0.06079434264936885</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>179</v>
+      </c>
+      <c r="J52" t="n">
+        <v>286</v>
+      </c>
+      <c r="K52" t="n">
+        <v>86.59768185961492</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3205304163.048515</v>
+        <v>2703370924.114619</v>
       </c>
       <c r="F53" t="n">
-        <v>0.132792660433823</v>
+        <v>0.1956674325932455</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02676519507165683</v>
+        <v>0.02601370960425005</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4601138334.894936</v>
+        <v>3067674604.375927</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1685827914532641</v>
+        <v>0.1360026816087206</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05188587133640716</v>
+        <v>0.03280083038445025</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>152</v>
+      </c>
+      <c r="J54" t="n">
+        <v>286</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44.91413537643209</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4781930949.091969</v>
+        <v>4829778413.270166</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1923251994729383</v>
+        <v>0.2038102155402489</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02862861280554165</v>
+        <v>0.02956872328414854</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>130</v>
+      </c>
+      <c r="J55" t="n">
+        <v>287</v>
+      </c>
+      <c r="K55" t="n">
+        <v>89.10476900744528</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1816913003.310896</v>
+        <v>1313359709.136282</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1627945905896548</v>
+        <v>0.1533826759792578</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05569972883983117</v>
+        <v>0.04413878212471271</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3209018119.210536</v>
+        <v>3979874449.163579</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1168468966049913</v>
+        <v>0.1221445770496045</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01820854695116869</v>
+        <v>0.02610059220792523</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>117</v>
+      </c>
+      <c r="J57" t="n">
+        <v>286</v>
+      </c>
+      <c r="K57" t="n">
+        <v>76.69098003793123</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1839893986.440439</v>
+        <v>1377895067.609833</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1915179292068271</v>
+        <v>0.1605279472138387</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02836248888018239</v>
+        <v>0.03195741247491727</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4497595198.730343</v>
+        <v>5418619282.417914</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1056436494965908</v>
+        <v>0.09178554394347845</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03491356413056401</v>
+        <v>0.03655313927997941</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>138</v>
+      </c>
+      <c r="J59" t="n">
+        <v>287</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3573213880.889108</v>
+        <v>2305267159.444679</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1996305328285982</v>
+        <v>0.189426865553594</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02804455602490243</v>
+        <v>0.02090380852832765</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="n">
+        <v>29.57195469175631</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2271482106.072115</v>
+        <v>2180009035.646</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1731846927290724</v>
+        <v>0.1631864130813187</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03035155507139215</v>
+        <v>0.02656041346383237</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1872596159.114125</v>
+        <v>1482322293.163767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1655106790429569</v>
+        <v>0.1326661085299475</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04782420604966109</v>
+        <v>0.03100556081763611</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4790957587.201249</v>
+        <v>4903794851.116276</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08147177586088891</v>
+        <v>0.09899948022697265</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02932819635573491</v>
+        <v>0.03294919706819348</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>139</v>
+      </c>
+      <c r="J63" t="n">
+        <v>287</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3625131188.24334</v>
+        <v>3739740438.213534</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1192371356624722</v>
+        <v>0.1575756315006799</v>
       </c>
       <c r="G64" t="n">
-        <v>0.028564689607459</v>
+        <v>0.0276782940499673</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>141</v>
+      </c>
+      <c r="J64" t="n">
+        <v>286</v>
+      </c>
+      <c r="K64" t="n">
+        <v>65.77964496383368</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5780487010.293848</v>
+        <v>4711374399.145422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1049081557776739</v>
+        <v>0.1390334383016528</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03226830995463255</v>
+        <v>0.03067450434703927</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>229</v>
+      </c>
+      <c r="J65" t="n">
+        <v>287</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4366238972.667151</v>
+        <v>4583955761.275042</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1563917685280664</v>
+        <v>0.1572516642867646</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04571050080874828</v>
+        <v>0.04317386912406201</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>142</v>
+      </c>
+      <c r="J66" t="n">
+        <v>286</v>
+      </c>
+      <c r="K66" t="n">
+        <v>79.40036733633764</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2147069216.001542</v>
+        <v>2343306870.042889</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06403750402572581</v>
+        <v>0.08814929889611554</v>
       </c>
       <c r="G67" t="n">
-        <v>0.050179024972852</v>
+        <v>0.04122226853953122</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6024082185.537261</v>
+        <v>6024269587.940808</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221140092701536</v>
+        <v>0.1450306443417518</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05058555634454565</v>
+        <v>0.05157242090882249</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>150</v>
+      </c>
+      <c r="J68" t="n">
+        <v>287</v>
+      </c>
+      <c r="K68" t="n">
+        <v>89.57751320732471</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1844965412.697082</v>
+        <v>1669062137.407295</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1157117914677482</v>
+        <v>0.125214750695333</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03745294501047464</v>
+        <v>0.05902652994946914</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2632635376.966336</v>
+        <v>3139066484.930336</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07198054919940784</v>
+        <v>0.07374269498426449</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03306449641948903</v>
+        <v>0.03139056878614459</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>286</v>
+      </c>
+      <c r="K70" t="n">
+        <v>45.72548854480442</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5022748583.758382</v>
+        <v>3567800975.161268</v>
       </c>
       <c r="F71" t="n">
-        <v>0.122761394070924</v>
+        <v>0.1306275776146264</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03032296057673811</v>
+        <v>0.02995083334964128</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>215</v>
+      </c>
+      <c r="J71" t="n">
+        <v>285</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2085888445.32814</v>
+        <v>2142471281.437851</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07236919270275156</v>
+        <v>0.09169612785988342</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05271702208511431</v>
+        <v>0.04138537618665811</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2360329124.713563</v>
+        <v>2391376524.417465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08873895884102874</v>
+        <v>0.07971401754469287</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04297569621987152</v>
+        <v>0.03391165464900763</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3433411705.807135</v>
+        <v>2659219744.07288</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1628519878004901</v>
+        <v>0.1211543833738175</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03049153039661759</v>
+        <v>0.02590526722034801</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>77</v>
+      </c>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2110011415.667292</v>
+        <v>2376009958.445721</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1041727571866754</v>
+        <v>0.1525142859677927</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02865343949359247</v>
+        <v>0.02934128331888205</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3492336592.276446</v>
+        <v>4309814431.40081</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09140139231994494</v>
+        <v>0.09879055148503697</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02605066514245872</v>
+        <v>0.02257399100264837</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>134</v>
+      </c>
+      <c r="J76" t="n">
+        <v>287</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1847581405.62456</v>
+        <v>2090782881.693547</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1415089339962462</v>
+        <v>0.1797240513428272</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02851743307058546</v>
+        <v>0.03135588922498111</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2907779601.670948</v>
+        <v>4260432128.99012</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1340518630105021</v>
+        <v>0.08716815542111266</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04479875137324705</v>
+        <v>0.05162982099977281</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>143</v>
+      </c>
+      <c r="J78" t="n">
+        <v>286</v>
+      </c>
+      <c r="K78" t="n">
+        <v>87.55669161355267</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1787751459.097745</v>
+        <v>1387529364.105364</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1468321099069184</v>
+        <v>0.1750625283714548</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03790465944023547</v>
+        <v>0.04044422352007628</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4372423389.858016</v>
+        <v>4273913798.794818</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08402836114726639</v>
+        <v>0.07198510354456507</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03030091346236371</v>
+        <v>0.03493191592261719</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>140</v>
+      </c>
+      <c r="J80" t="n">
+        <v>287</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5120711447.623039</v>
+        <v>4471434062.954004</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1159980743103358</v>
+        <v>0.09640383666358422</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02506307412288582</v>
+        <v>0.02069854059141858</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>132</v>
+      </c>
+      <c r="J81" t="n">
+        <v>286</v>
+      </c>
+      <c r="K81" t="n">
+        <v>78.49165418529333</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3436995996.479384</v>
+        <v>4372558341.296928</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2169920311053796</v>
+        <v>0.1814586692255563</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0222698188194377</v>
+        <v>0.02089318760188489</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>212</v>
+      </c>
+      <c r="J82" t="n">
+        <v>286</v>
+      </c>
+      <c r="K82" t="n">
+        <v>87.0072400809386</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2494456187.562487</v>
+        <v>2489220886.773546</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105504203314402</v>
+        <v>0.1178403053216433</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04527115734143363</v>
+        <v>0.03766303685578876</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1608451072.030061</v>
+        <v>2107845617.332819</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09485716322585218</v>
+        <v>0.08067317243751869</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03935000552067622</v>
+        <v>0.05170768490941584</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2717126567.670293</v>
+        <v>2260662177.685212</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1379748760205184</v>
+        <v>0.1116962751933417</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04932613881225325</v>
+        <v>0.03606459219383142</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2169773451.702134</v>
+        <v>2546226028.257194</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1415084402206083</v>
+        <v>0.1094795269909875</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02372228582462057</v>
+        <v>0.01815778362406172</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1197527314.246976</v>
+        <v>997921589.0422171</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1596743626447282</v>
+        <v>0.1199024579126785</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03168005287495038</v>
+        <v>0.03554686901920491</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3342374197.766921</v>
+        <v>2850879658.131569</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1323744530017009</v>
+        <v>0.1334869282793208</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03906167912289054</v>
+        <v>0.03183400768952342</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3473283782.692662</v>
+        <v>2887064668.04327</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1055242598356866</v>
+        <v>0.1260692016135196</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02887603121993908</v>
+        <v>0.03398959452101586</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1789309527.818341</v>
+        <v>1668310549.172379</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1177313170495307</v>
+        <v>0.08405403398744368</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03513032094633842</v>
+        <v>0.05419642400975997</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1374274963.578021</v>
+        <v>1682929940.381173</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1663508723508756</v>
+        <v>0.1682383818712439</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05001632011360136</v>
+        <v>0.04050502629425812</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2912831692.843202</v>
+        <v>2848153514.31344</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06945285081619045</v>
+        <v>0.1046341714260985</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03285358496254176</v>
+        <v>0.03872057127174665</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4310086477.358413</v>
+        <v>4756654358.668591</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1265369295725711</v>
+        <v>0.1074275508177432</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04823780239910448</v>
+        <v>0.04313680620627823</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>126</v>
+      </c>
+      <c r="J93" t="n">
+        <v>286</v>
+      </c>
+      <c r="K93" t="n">
+        <v>88.40007102033604</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2274688074.135785</v>
+        <v>1890151739.636677</v>
       </c>
       <c r="F94" t="n">
-        <v>0.134070587638342</v>
+        <v>0.1628627630933772</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03451543832798708</v>
+        <v>0.03657041251609587</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2061155627.353238</v>
+        <v>2750811178.786936</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1309767687314195</v>
+        <v>0.08876828836712627</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04484644477584378</v>
+        <v>0.03718304837438349</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2349332508.429123</v>
+        <v>1804108944.869165</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1258434054299109</v>
+        <v>0.1301384539943388</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03801655650405442</v>
+        <v>0.03286314135428192</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3510526362.325285</v>
+        <v>4325119035.067382</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1738255958280562</v>
+        <v>0.1759003792115034</v>
       </c>
       <c r="G97" t="n">
-        <v>0.028715048460612</v>
+        <v>0.02558501844490237</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>142</v>
+      </c>
+      <c r="J97" t="n">
+        <v>287</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3539655833.286986</v>
+        <v>2389541159.976733</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09876396582725852</v>
+        <v>0.1002108240337493</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02293155283490167</v>
+        <v>0.0298456100540188</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>69</v>
+      </c>
+      <c r="J98" t="n">
+        <v>285</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3076094796.204223</v>
+        <v>3085313367.889468</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1403412755507129</v>
+        <v>0.1227567067127743</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02692133846059938</v>
+        <v>0.03128102204077855</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3887500793.289964</v>
+        <v>4371970242.488339</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1427488083999761</v>
+        <v>0.1137074959028955</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01875177749954477</v>
+        <v>0.02152673805811414</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>122</v>
+      </c>
+      <c r="J100" t="n">
+        <v>287</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3396653479.916096</v>
+        <v>3056698664.516268</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2006751121729129</v>
+        <v>0.2113488592048696</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04176080582431053</v>
+        <v>0.05769395144478728</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
